--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/164.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/164.xlsx
@@ -479,13 +479,13 @@
         <v>-13.13233300268642</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.14035749034817</v>
+        <v>-13.32570203832461</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.123230651539297</v>
+        <v>-1.670619833351864</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.56058467690026</v>
+        <v>-10.42680434310962</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.78020575785368</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.420873171035</v>
+        <v>-13.67232075605931</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9660706482272169</v>
+        <v>-1.491032715271907</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.47846975347695</v>
+        <v>-10.33930848321837</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.32281519080899</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.89553461056177</v>
+        <v>-14.28369202185939</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8226444705961079</v>
+        <v>-1.334972465398532</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.10800995226747</v>
+        <v>-10.04990312890201</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.79395089256767</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.5014594783797</v>
+        <v>-14.96608903057584</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7495370515279095</v>
+        <v>-1.311052828106699</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.07478168765517</v>
+        <v>-10.0781694107373</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.18979286530592</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.08379201647683</v>
+        <v>-15.63315495266462</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5622254747713347</v>
+        <v>-1.075561576892572</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.67868715748159</v>
+        <v>-9.6295747461684</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.53145622903454</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.77816848229346</v>
+        <v>-16.4026026829757</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4750961993596476</v>
+        <v>-1.009759662810057</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.53599414880962</v>
+        <v>-9.526027722993188</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.816267651644342</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.4311339942217</v>
+        <v>-17.08509133781204</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3269437004026755</v>
+        <v>-0.8575354576693078</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.11040266033363</v>
+        <v>-9.024854370211914</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.068540902223495</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.20896079835149</v>
+        <v>-17.91587650693661</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3629344409145804</v>
+        <v>-0.8711776372303864</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.94465410635738</v>
+        <v>-8.816058324492067</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.296914375897265</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.77120974388942</v>
+        <v>-18.56550348164022</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.182915276840847</v>
+        <v>-0.7625638928554269</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.646215063080234</v>
+        <v>-8.503702163294166</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.515929983516695</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.41223507562601</v>
+        <v>-19.22875954360206</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04275674724198526</v>
+        <v>-0.5379654376056162</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.290601933293269</v>
+        <v>-8.145915711235476</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.750215348788577</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.01334197599818</v>
+        <v>-19.84970128277945</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1509307809985102</v>
+        <v>-0.7637814770197074</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.765469666311636</v>
+        <v>-7.620482321288484</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.010907705396813</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.77949044599315</v>
+        <v>-20.71476210074365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06150492491133699</v>
+        <v>-0.4968686989854381</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.137837760382132</v>
+        <v>-6.992837323056136</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.33137065621869</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.56026301826232</v>
+        <v>-21.43206318883614</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2899263325909317</v>
+        <v>-0.301727925129511</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.845080776538294</v>
+        <v>-6.72913215921809</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.734301891071239</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.42502271326117</v>
+        <v>-22.29379856187855</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4625745301647733</v>
+        <v>-0.1596633469939415</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.16299798309005</v>
+        <v>-6.122513399349554</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.242783366386386</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.47899236892864</v>
+        <v>-23.30923757028282</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7367404439733589</v>
+        <v>0.1123685214514428</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.789173460050246</v>
+        <v>-5.682271623993674</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.890250074787958</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.15049658168077</v>
+        <v>-24.01602553919341</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8709365481010511</v>
+        <v>0.2591070517015086</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.633100117874029</v>
+        <v>-5.450040356187136</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.689076731384013</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.05486049277584</v>
+        <v>-24.95228230001092</v>
       </c>
       <c r="F18" t="n">
-        <v>1.177165511569024</v>
+        <v>0.4912335810853117</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.094220932908584</v>
+        <v>-4.916018415575972</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.661509806505987</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.85529770391329</v>
+        <v>-25.80601827601703</v>
       </c>
       <c r="F19" t="n">
-        <v>1.274244937140423</v>
+        <v>0.5592611866509204</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.990765555853264</v>
+        <v>-4.723797225253749</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.806688055102336</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.61081522400078</v>
+        <v>-26.54984436966686</v>
       </c>
       <c r="F20" t="n">
-        <v>1.417684207074374</v>
+        <v>0.7131219296468851</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.680032840207738</v>
+        <v>-4.393609347585418</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.107217402717953</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.25246898627377</v>
+        <v>-27.18372130405187</v>
       </c>
       <c r="F21" t="n">
-        <v>1.671386851541341</v>
+        <v>0.9290401881126314</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.424929319336706</v>
+        <v>-4.082169647586438</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.541006176796656</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.83253655597929</v>
+        <v>-27.78629454234231</v>
       </c>
       <c r="F22" t="n">
-        <v>1.789531792385077</v>
+        <v>0.9933233950655065</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.753281091253316</v>
+        <v>-3.518127056559196</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.059483363342412</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.23958934363139</v>
+        <v>-28.20369024923938</v>
       </c>
       <c r="F23" t="n">
-        <v>1.975782892611472</v>
+        <v>1.140611802034925</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.759369012074719</v>
+        <v>-3.44670854455758</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.623339394990277</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.54079086280814</v>
+        <v>-28.52417673050199</v>
       </c>
       <c r="F24" t="n">
-        <v>1.856747675174499</v>
+        <v>1.038491839869461</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.469374504130487</v>
+        <v>-3.24130340527374</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.188823051186858</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.83043187857565</v>
+        <v>-28.78261878859767</v>
       </c>
       <c r="F25" t="n">
-        <v>2.153995318893048</v>
+        <v>1.346881033306319</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.195719190132729</v>
+        <v>-3.053860905488748</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.716343834721227</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.85419440823338</v>
+        <v>-28.76296724203224</v>
       </c>
       <c r="F26" t="n">
-        <v>2.055672124551685</v>
+        <v>1.265721847990459</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.309465117221644</v>
+        <v>-3.211322031766187</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.1825966567424</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.00715178233327</v>
+        <v>-28.92138410641712</v>
       </c>
       <c r="F27" t="n">
-        <v>2.003538574635932</v>
+        <v>1.159229056675859</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.997174417537953</v>
+        <v>-2.944029576949508</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.560839393939264</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.81775852942486</v>
+        <v>-28.76459068758461</v>
       </c>
       <c r="F28" t="n">
-        <v>2.205997945780383</v>
+        <v>1.408807625747683</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.050224428652627</v>
+        <v>-3.057356550347489</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.838965202674095</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.82074357447277</v>
+        <v>-28.78551218752569</v>
       </c>
       <c r="F29" t="n">
-        <v>2.065020028780677</v>
+        <v>1.261663234109524</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.983074007377414</v>
+        <v>-3.015762304219325</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.006333974908488</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.6299494451603</v>
+        <v>-28.57980592527649</v>
       </c>
       <c r="F30" t="n">
-        <v>2.122469053650171</v>
+        <v>1.286879009382688</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.962165599739177</v>
+        <v>-2.984969207935585</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.053689728259691</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.21358803018773</v>
+        <v>-28.19324259157168</v>
       </c>
       <c r="F31" t="n">
-        <v>2.004900174131471</v>
+        <v>1.185269647028052</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.258418228441755</v>
+        <v>-3.356528762583771</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.98264365334877</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.10531468568665</v>
+        <v>-28.1463721473983</v>
       </c>
       <c r="F32" t="n">
-        <v>1.992095901952263</v>
+        <v>1.187534615419671</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.488711835427717</v>
+        <v>-3.597846088562466</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.791800817202104</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.52821906872621</v>
+        <v>-27.57964563428851</v>
       </c>
       <c r="F33" t="n">
-        <v>1.922968542947949</v>
+        <v>1.125738946006724</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.768991854663388</v>
+        <v>-3.940222900176444</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.490429091557171</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.95448817359609</v>
+        <v>-26.97023821391468</v>
       </c>
       <c r="F34" t="n">
-        <v>1.997594669145788</v>
+        <v>1.215107005204346</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.667159923160443</v>
+        <v>-3.897345608369791</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.091724306015724</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.72759856534898</v>
+        <v>-26.69675309985387</v>
       </c>
       <c r="F35" t="n">
-        <v>1.796444528285509</v>
+        <v>1.020542292673455</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.97304848675453</v>
+        <v>-4.198259096884024</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.609363037903353</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.84454892328024</v>
+        <v>-25.80408061519646</v>
       </c>
       <c r="F36" t="n">
-        <v>1.719069018490908</v>
+        <v>0.9573326545536015</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.185602023389953</v>
+        <v>-4.348702748838297</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.068837475023089</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.34368978576716</v>
+        <v>-25.21202049608792</v>
       </c>
       <c r="F37" t="n">
-        <v>1.605192168373574</v>
+        <v>0.8693131025486771</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.428110748927245</v>
+        <v>-4.577948971596921</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.489838790797204</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.88397975608564</v>
+        <v>-24.79988789493323</v>
       </c>
       <c r="F38" t="n">
-        <v>1.593016326730769</v>
+        <v>0.8389520522587144</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.586226490346771</v>
+        <v>-4.732307222100872</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.897390285484321</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.41041806999756</v>
+        <v>-24.22435026201095</v>
       </c>
       <c r="F39" t="n">
-        <v>1.491524795101709</v>
+        <v>0.8090099556596868</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.710053490623816</v>
+        <v>-4.894180454435973</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.315521248373665</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.9453009192424</v>
+        <v>-23.76500681680899</v>
       </c>
       <c r="F40" t="n">
-        <v>1.486183135542284</v>
+        <v>0.7750485220882495</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.822817494999603</v>
+        <v>-5.019722546385283</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.760195468614587</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.14359375472931</v>
+        <v>-22.97307960251867</v>
       </c>
       <c r="F41" t="n">
-        <v>1.571832980732856</v>
+        <v>0.9286866959359048</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.937335867956181</v>
+        <v>-5.160124402059954</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.254705593391216</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.74093998083202</v>
+        <v>-22.51278041920926</v>
       </c>
       <c r="F42" t="n">
-        <v>1.692413089905153</v>
+        <v>1.043126515075432</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.002273690051142</v>
+        <v>-5.282105387636316</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.810101708088848</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.91489422533616</v>
+        <v>-21.6740613145626</v>
       </c>
       <c r="F43" t="n">
-        <v>1.879528282119102</v>
+        <v>1.230542830254741</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.988749341215639</v>
+        <v>-5.27675063577405</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.43830114862913</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.65095340004696</v>
+        <v>-21.33603114749208</v>
       </c>
       <c r="F44" t="n">
-        <v>1.845540663941981</v>
+        <v>1.201543379460318</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.176296579423365</v>
+        <v>-5.495640846984868</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.147981573071745</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.10531858681518</v>
+        <v>-20.78760767375502</v>
       </c>
       <c r="F45" t="n">
-        <v>1.910557039853993</v>
+        <v>1.254043513855639</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.284700846952856</v>
+        <v>-5.639878747392165</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.935823024347163</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.61096632381445</v>
+        <v>-20.22521471288583</v>
       </c>
       <c r="F46" t="n">
-        <v>2.06860731975931</v>
+        <v>1.425591957990776</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.220181978548831</v>
+        <v>-5.55497516346357</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.804667115351456</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.07460086099461</v>
+        <v>-19.65030551049996</v>
       </c>
       <c r="F47" t="n">
-        <v>1.949781579167804</v>
+        <v>1.31632359847373</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.601600037236836</v>
+        <v>-5.944431896096396</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.744766720766692</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.61767949181838</v>
+        <v>-19.10968504925656</v>
       </c>
       <c r="F48" t="n">
-        <v>1.983062212991472</v>
+        <v>1.327818640368766</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.637198008663489</v>
+        <v>-5.95963205969564</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.748571695908661</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.940074265942</v>
+        <v>-18.44769894067037</v>
       </c>
       <c r="F49" t="n">
-        <v>2.002124605929025</v>
+        <v>1.370735209083944</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.08835876458937</v>
+        <v>-6.431229900357454</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.810633896411806</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.38810277813483</v>
+        <v>-17.79638305890018</v>
       </c>
       <c r="F50" t="n">
-        <v>1.987592149774709</v>
+        <v>1.370159147758908</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.080162983010449</v>
+        <v>-6.434764822124721</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.919477109027088</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.54768167411875</v>
+        <v>-16.9107804177773</v>
       </c>
       <c r="F51" t="n">
-        <v>2.021710690980247</v>
+        <v>1.400638028774446</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.455885889962304</v>
+        <v>-6.758589840611974</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.076813361326876</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.21308169039276</v>
+        <v>-16.50753749025214</v>
       </c>
       <c r="F52" t="n">
-        <v>1.915741591779317</v>
+        <v>1.307028063456105</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.373325828242379</v>
+        <v>-6.680756100217912</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.279802728593436</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.66414761684486</v>
+        <v>-15.8919112260285</v>
       </c>
       <c r="F53" t="n">
-        <v>2.028518688457945</v>
+        <v>1.458479822729192</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.478129712490396</v>
+        <v>-6.796256395887619</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.530712753717077</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.32005571355862</v>
+        <v>-15.52264282437761</v>
       </c>
       <c r="F54" t="n">
-        <v>1.769552938248603</v>
+        <v>1.210550883815425</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.872221120329193</v>
+        <v>-7.160183137979079</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.834148460470233</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.73713402183361</v>
+        <v>-14.87217794229214</v>
       </c>
       <c r="F55" t="n">
-        <v>1.848080570693276</v>
+        <v>1.271587199663552</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.028909800738971</v>
+        <v>-7.422919471406837</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.184539815673552</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.34784748913773</v>
+        <v>-14.5081333694751</v>
       </c>
       <c r="F56" t="n">
-        <v>1.692674935961988</v>
+        <v>1.168393668665067</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.245783797312162</v>
+        <v>-7.687737480986431</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.580808607202267</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.68465688869009</v>
+        <v>-13.79761409425463</v>
       </c>
       <c r="F57" t="n">
-        <v>1.600740785407387</v>
+        <v>1.113235796792875</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.564371894662726</v>
+        <v>-8.073109415132638</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.01077327567798</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.47239138271719</v>
+        <v>-13.53244259249831</v>
       </c>
       <c r="F58" t="n">
-        <v>1.479034738190702</v>
+        <v>0.9801918153152552</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.600559019717256</v>
+        <v>-8.048037655190733</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.464666711058902</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.9743209057094</v>
+        <v>-12.98332522671063</v>
       </c>
       <c r="F59" t="n">
-        <v>1.535043609747606</v>
+        <v>1.034092826114641</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.773966570855917</v>
+        <v>-8.280046353848959</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.935551860501628</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.83952255565099</v>
+        <v>-12.83103556005567</v>
       </c>
       <c r="F60" t="n">
-        <v>1.400768951802863</v>
+        <v>0.9454841204818394</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.68455923474977</v>
+        <v>-8.162372735907526</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.406448514284439</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.53583349893431</v>
+        <v>-12.41231753057159</v>
       </c>
       <c r="F61" t="n">
-        <v>1.322660273049126</v>
+        <v>0.867886041538929</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.904693214730552</v>
+        <v>-8.500952779697403</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.868142436144647</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.22169678454994</v>
+        <v>-12.05068194147743</v>
       </c>
       <c r="F62" t="n">
-        <v>1.32368147267078</v>
+        <v>0.8929185245723092</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.204677149743022</v>
+        <v>-8.732660355390271</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.303130538563235</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.78802734522061</v>
+        <v>-11.61647571773159</v>
       </c>
       <c r="F63" t="n">
-        <v>1.276745566983192</v>
+        <v>0.8904964485465899</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.187945186711296</v>
+        <v>-8.706672134249445</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.694176577512239</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.52810585690382</v>
+        <v>-11.32058967350858</v>
       </c>
       <c r="F64" t="n">
-        <v>1.216992296813555</v>
+        <v>0.816171445314111</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.376971855140138</v>
+        <v>-8.856068401976382</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.029053661056277</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.28214076341631</v>
+        <v>-11.04380529913165</v>
       </c>
       <c r="F65" t="n">
-        <v>1.214125082491217</v>
+        <v>0.8392924521325993</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.552461082430632</v>
+        <v>-9.042581348259612</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.289099851876982</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.06740081220632</v>
+        <v>-10.80803910955785</v>
       </c>
       <c r="F66" t="n">
-        <v>1.018342785796045</v>
+        <v>0.6311510215548383</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.564741662496171</v>
+        <v>-8.996745196010728</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.469547659640629</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.88028561999237</v>
+        <v>-10.61325182787865</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9862011823196075</v>
+        <v>0.6107139368189038</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.629325992414406</v>
+        <v>-9.089936207638134</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.565895238692286</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.7535652207873</v>
+        <v>-10.43947769226042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9004727833119852</v>
+        <v>0.5718559819846608</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.556951742305344</v>
+        <v>-8.979437171653966</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.577788520739326</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.57946377759803</v>
+        <v>-10.28583951841276</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6869504162662747</v>
+        <v>0.3306172098230163</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.510408605703009</v>
+        <v>-8.948251306284975</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.514651166980249</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.46859815713429</v>
+        <v>-10.18870772362999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8247338113725998</v>
+        <v>0.4492858427804214</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.446203952567185</v>
+        <v>-8.851630111313037</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.38089894662452</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.29991692732149</v>
+        <v>-10.02950532107461</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7313987844139347</v>
+        <v>0.3694620723544176</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.093405667891192</v>
+        <v>-8.540543903490784</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.194183187759188</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.23615741248229</v>
+        <v>-10.00946100542392</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7603327736941493</v>
+        <v>0.3409470367651382</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.94737412199458</v>
+        <v>-8.353729834242195</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.968766100690951</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.23548970503736</v>
+        <v>-10.03095856669004</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5907612672881133</v>
+        <v>0.1989479201437772</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.905557306718107</v>
+        <v>-8.267935973720363</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.716231057591651</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.3547343993198</v>
+        <v>-10.16533796305751</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6917814760148716</v>
+        <v>0.3096564329734129</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.679060467556246</v>
+        <v>-8.055827575381558</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.454520593415221</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.41300823926832</v>
+        <v>-10.24952147032981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5172741714375049</v>
+        <v>0.05778671090428678</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.507354915787008</v>
+        <v>-7.862964862220092</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.188280583083148</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.78376916344316</v>
+        <v>-10.61975870239098</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6255606082414212</v>
+        <v>0.1644627944586708</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.254974593907054</v>
+        <v>-7.609956109803736</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.929139781627464</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.16563236042779</v>
+        <v>-10.9595432380423</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5298035052570367</v>
+        <v>0.07118013671137255</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.073096322829796</v>
+        <v>-7.490357923344568</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.682508153383675</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.73225413511485</v>
+        <v>-11.51638506250659</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5009480697938725</v>
+        <v>0.01331215815094333</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.831373135463007</v>
+        <v>-7.234887817993968</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.447976013383416</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.14491042838322</v>
+        <v>-11.95432259256233</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3923474177217547</v>
+        <v>-0.06272793675380167</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.791703457852577</v>
+        <v>-7.182976837226524</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.232913459674784</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.65628268507819</v>
+        <v>-12.44510065688727</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6270531307653779</v>
+        <v>0.06434595462799154</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.49552938296705</v>
+        <v>-6.829681045042546</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.032324033284111</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.51407727496524</v>
+        <v>-13.29964835566958</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4569448399428311</v>
+        <v>-0.0536026016731186</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.4698161001859</v>
+        <v>-6.837798272804416</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.849180598782736</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.17847236727432</v>
+        <v>-13.96607275491912</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5465878375001295</v>
+        <v>-0.006614326774163744</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.315326926653532</v>
+        <v>-6.645328328728201</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.683401436626209</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.93963266988659</v>
+        <v>-14.68940939462164</v>
       </c>
       <c r="F83" t="n">
-        <v>0.408346211794344</v>
+        <v>-0.1722450500248402</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.059830636697249</v>
+        <v>-6.346614347091379</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.529936054013797</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.03009057357395</v>
+        <v>-15.8222863595162</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4151411169691998</v>
+        <v>-0.1943710418273573</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.854595697350351</v>
+        <v>-6.174529118539732</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.394354734220258</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.84807147051931</v>
+        <v>-16.64917002239393</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4668164362854926</v>
+        <v>-0.1776521710984731</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.602529590738599</v>
+        <v>-5.879965396903737</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.272834357856051</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.87058032245812</v>
+        <v>-17.63579287224357</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4268456357097029</v>
+        <v>-0.269612506258757</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.30012357970041</v>
+        <v>-5.579182831417922</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.170037739022412</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.89323318972818</v>
+        <v>-18.67096198103032</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4621686687766798</v>
+        <v>-0.2669940456904118</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.906830802334959</v>
+        <v>-5.118608709748841</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.090948212727857</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.20898344071597</v>
+        <v>-19.97045159188868</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5756658421116031</v>
+        <v>-0.1224681146205977</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.724808515926441</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.03547044617794</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.76848618601101</v>
+        <v>-21.50287945490704</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3934864480689849</v>
+        <v>-0.3307666528324595</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.371748385193614</v>
+        <v>-4.598098025670337</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.015483217469889</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.28056861041332</v>
+        <v>-23.00774802044356</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2098799930166185</v>
+        <v>-0.4996049902793588</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.132643658395171</v>
+        <v>-4.334864184734593</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.031706333873506</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.70728922028758</v>
+        <v>-24.47399429259698</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1689796389390663</v>
+        <v>-0.5382665605709759</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.159063925529774</v>
+        <v>-4.364256404614268</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.090483431140438</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.41071565072172</v>
+        <v>-26.1042740270544</v>
       </c>
       <c r="F92" t="n">
-        <v>0.007774114048893205</v>
+        <v>-0.7028629918971561</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.864775142253456</v>
+        <v>-4.115227712261797</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.19761184854856</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.36267326600034</v>
+        <v>-28.10013013376133</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02669249165518737</v>
+        <v>-0.6697132811019056</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.897100037969677</v>
+        <v>-4.098102980144819</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.349842026272323</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.50661641015003</v>
+        <v>-30.22531200793883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0288658139269139</v>
+        <v>-0.6245055593894255</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.959406307193452</v>
+        <v>-4.170660522493665</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.554223266452883</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.68182397348577</v>
+        <v>-32.42879894541269</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3431519713207323</v>
+        <v>-1.016881875555956</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.111682881545568</v>
+        <v>-4.373093709032434</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.814295188402294</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.77431436746748</v>
+        <v>-34.56903696785818</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4589926668643246</v>
+        <v>-1.086388911342679</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.239516126492181</v>
+        <v>-4.561112270142462</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.124370532383568</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.06855714824019</v>
+        <v>-36.86050418042844</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.75333381935201</v>
+        <v>-1.351966274487093</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.434028469811706</v>
+        <v>-4.68322417874724</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.509476471472349</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.51696179497422</v>
+        <v>-39.32099302268539</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.041613235623976</v>
+        <v>-1.688883595816072</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.696568418696838</v>
+        <v>-5.000921999504565</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.939711231103701</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.89003333115696</v>
+        <v>-41.70544177003759</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.925680893960492</v>
+        <v>-1.56478165717935</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.065941558770456</v>
+        <v>-5.325165971682753</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.470451584080942</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.43393323481855</v>
+        <v>-44.23344761804932</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.06583399588117</v>
+        <v>-1.733855656077401</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.254745658050988</v>
+        <v>-5.53410603273386</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.028498434611936</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.90054927480542</v>
+        <v>-46.71000071589307</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.218241493261703</v>
+        <v>-1.945126147034334</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.63121482626482</v>
+        <v>-5.939810313193266</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.733865329027221</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.24274916088738</v>
+        <v>-49.06696871958048</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.304022261480692</v>
+        <v>-2.042192480302891</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.921602103294305</v>
+        <v>-6.244167077354873</v>
       </c>
     </row>
   </sheetData>
